--- a/Project Freedom - Task List.xlsx
+++ b/Project Freedom - Task List.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$5</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Put app on cloud</t>
   </si>
@@ -34,6 +37,45 @@
   </si>
   <si>
     <t>Display user based data on screens</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>BreakDown</t>
+  </si>
+  <si>
+    <t>Sub-BreakDown</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Write live extraction module with scheduler and test on cloud</t>
+  </si>
+  <si>
+    <t>use windows ami</t>
+  </si>
+  <si>
+    <t>try using latest version of selenium webdriver</t>
+  </si>
+  <si>
+    <t>use in memory db</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Try with webapp</t>
+  </si>
+  <si>
+    <t>use a server that allows connection pool, etc as required.</t>
+  </si>
+  <si>
+    <t>Technical Debt Resolution using Sonar</t>
   </si>
 </sst>
 </file>
@@ -75,9 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -374,48 +419,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="39">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="26.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="26.25">
-      <c r="A6" s="1" t="s">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1"/>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="26.25">
-      <c r="A7" s="1" t="s">
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1"/>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
